--- a/public/assets/file/barang.xlsx
+++ b/public/assets/file/barang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KANTOR\WEB\larisso_web\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD63AB-4B36-49EB-9183-E8790D36C2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539928A9-9128-4ACC-A084-87FF7A33A1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>kd_brg</t>
   </si>
@@ -76,9 +76,6 @@
     <t>qty_min4</t>
   </si>
   <si>
-    <t>gambar</t>
-  </si>
-  <si>
     <t>jns_brg</t>
   </si>
   <si>
@@ -89,6 +86,27 @@
   </si>
   <si>
     <t>sat_tur4</t>
+  </si>
+  <si>
+    <t>kd_kat_android</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>harga_disc</t>
+  </si>
+  <si>
+    <t>sts_tampil</t>
+  </si>
+  <si>
+    <t>sts_promo</t>
+  </si>
+  <si>
+    <t>sts_poin</t>
+  </si>
+  <si>
+    <t>kd_outlet</t>
   </si>
 </sst>
 </file>
@@ -928,98 +946,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/file/barang.xlsx
+++ b/public/assets/file/barang.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KANTOR\WEB\larisso_web\public\assets\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kantor\Web\larisso_web\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539928A9-9128-4ACC-A084-87FF7A33A1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="barang" sheetId="1" r:id="rId1"/>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
